--- a/AAA General Format Mapping To AAT.xlsx
+++ b/AAA General Format Mapping To AAT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobyreiter/github/americanart/aaa/data-v3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobyreiter/karma/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="8620" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2460" yWindow="3240" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,9 +478,10 @@
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -491,7 +492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -501,8 +502,12 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>CONCATENATE("http://vocab.getty.edu/aat", SUBSTITUTE(B2,"aat:",""))</f>
+        <v>http://vocab.getty.edu/aat300133025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -512,8 +517,12 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D14" si="0">CONCATENATE("http://vocab.getty.edu/aat", SUBSTITUTE(B3,"aat:",""))</f>
+        <v>http://vocab.getty.edu/aat300026392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -523,8 +532,12 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300026877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -534,8 +547,12 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300117127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -545,8 +562,12 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300046300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -556,8 +577,12 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300404588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -567,8 +592,12 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300026690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -578,8 +607,12 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300189226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -589,8 +622,12 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300027473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -600,8 +637,12 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300027590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -611,8 +652,12 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300028682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -622,8 +667,12 @@
       <c r="C13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300028633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -632,6 +681,10 @@
       </c>
       <c r="C14" t="s">
         <v>38</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://vocab.getty.edu/aat300136900</v>
       </c>
     </row>
   </sheetData>
